--- a/benchmarking/wde/imps/benchmarks-imps-async.xlsx
+++ b/benchmarking/wde/imps/benchmarks-imps-async.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noooop\Desktop\测试\bge-m3\1.benchmark_attention_impl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noooop\Desktop\测试\bge-m3-2024-01-29\1.benchmark_attention_impl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D828859-9B17-4FDC-B295-FA2B591F5493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BB6B24-C316-46C5-8CE8-5CD2979A5363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{53F49C1F-4535-4F64-A648-A66B71F85A25}"/>
   </bookViews>
@@ -257,25 +257,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>151.49760000000001</c:v>
+                  <c:v>150.53100000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>172.61949999999999</c:v>
+                  <c:v>171.5692</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>194.0608</c:v>
+                  <c:v>191.55879999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>192.51769999999999</c:v>
+                  <c:v>191.80109999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>205.67949999999999</c:v>
+                  <c:v>204.9102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>207.0067</c:v>
+                  <c:v>206.12559999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>199.37979999999999</c:v>
+                  <c:v>199.3767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -287,25 +287,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.6</c:v>
+                  <c:v>12.9116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.59</c:v>
+                  <c:v>22.826699999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.61</c:v>
+                  <c:v>41.069000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.55</c:v>
+                  <c:v>82.376800000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77.790000000000006</c:v>
+                  <c:v>154.1806</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>154.34</c:v>
+                  <c:v>306.38299999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>319.45999999999998</c:v>
+                  <c:v>512.82669999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -362,25 +362,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>122.1996</c:v>
+                  <c:v>121.88720000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>154.3356</c:v>
+                  <c:v>152.7928</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>176.6165</c:v>
+                  <c:v>175.48140000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>184.3366</c:v>
+                  <c:v>182.7867</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>205.10919999999999</c:v>
+                  <c:v>202.90809999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>211.0616</c:v>
+                  <c:v>209.6874</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>213.9538</c:v>
+                  <c:v>212.4862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -392,25 +392,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8.18</c:v>
+                  <c:v>8.3588000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.96</c:v>
+                  <c:v>13.5284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.65</c:v>
+                  <c:v>23.620100000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.4</c:v>
+                  <c:v>45.5901</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>78.010000000000005</c:v>
+                  <c:v>82.378</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>151.37</c:v>
+                  <c:v>159.34129999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>297.7</c:v>
+                  <c:v>315.48790000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -467,25 +467,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>149.53899999999999</c:v>
+                  <c:v>148.14760000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>167.22139999999999</c:v>
+                  <c:v>165.1283</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>183.82320000000001</c:v>
+                  <c:v>181.82769999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>183.08920000000001</c:v>
+                  <c:v>181.08510000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>189.89330000000001</c:v>
+                  <c:v>188.66200000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>186.7304</c:v>
+                  <c:v>186.44929999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>184.26910000000001</c:v>
+                  <c:v>183.73089999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -497,25 +497,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.69</c:v>
+                  <c:v>13.1266</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.96</c:v>
+                  <c:v>23.773299999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.76</c:v>
+                  <c:v>43.316899999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.69</c:v>
+                  <c:v>86.71</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>84.26</c:v>
+                  <c:v>141.74539999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>171.1</c:v>
+                  <c:v>231.65979999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>345.66</c:v>
+                  <c:v>414.93669999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -542,7 +542,7 @@
         <c:axId val="358552431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1000"/>
+          <c:max val="900"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -860,25 +860,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>449.77229999999997</c:v>
+                  <c:v>448.76830000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>615.59259999999995</c:v>
+                  <c:v>615.47029999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>712.13040000000001</c:v>
+                  <c:v>707.72220000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>775.8981</c:v>
+                  <c:v>772.48199999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>793.59069999999997</c:v>
+                  <c:v>790.41920000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>795.31230000000005</c:v>
+                  <c:v>789.9443</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>786.70180000000005</c:v>
+                  <c:v>783.14179999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -890,25 +890,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.2200000000000002</c:v>
+                  <c:v>3.4051999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.25</c:v>
+                  <c:v>6.1614000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.62</c:v>
+                  <c:v>10.6433</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.31</c:v>
+                  <c:v>19.648199999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.16</c:v>
+                  <c:v>38.671700000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.17</c:v>
+                  <c:v>77.681600000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80.959999999999994</c:v>
+                  <c:v>157.1114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -965,25 +965,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>422.73910000000001</c:v>
+                  <c:v>422.2423</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>582.23940000000005</c:v>
+                  <c:v>580.76739999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>677.55439999999999</c:v>
+                  <c:v>675.10910000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>736.46230000000003</c:v>
+                  <c:v>733.41290000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>733.56399999999996</c:v>
+                  <c:v>731.78909999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>733.71349999999995</c:v>
+                  <c:v>729.94659999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>685.31119999999999</c:v>
+                  <c:v>685.02700000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -995,25 +995,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.37</c:v>
+                  <c:v>3.2618</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.44</c:v>
+                  <c:v>6.4817999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.9</c:v>
+                  <c:v>11.1913</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.86</c:v>
+                  <c:v>20.761900000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.81</c:v>
+                  <c:v>41.889299999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.54</c:v>
+                  <c:v>84.097399999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92.94</c:v>
+                  <c:v>147.41579999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1070,25 +1070,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>229.99350000000001</c:v>
+                  <c:v>228.5848</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>350.65050000000002</c:v>
+                  <c:v>350.52519999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>458.63249999999999</c:v>
+                  <c:v>460.36799999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>582.5684</c:v>
+                  <c:v>583.10170000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>681.029</c:v>
+                  <c:v>677.3116</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>690.14610000000005</c:v>
+                  <c:v>688.86680000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>733.77679999999998</c:v>
+                  <c:v>730.48800000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1100,25 +1100,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.3499999999999996</c:v>
+                  <c:v>4.4330999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7</c:v>
+                  <c:v>5.7587000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.7200000000000006</c:v>
+                  <c:v>8.8425999999999991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.73</c:v>
+                  <c:v>14.0769</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.49</c:v>
+                  <c:v>24.4329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.29</c:v>
+                  <c:v>48.122</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>86.8</c:v>
+                  <c:v>92.279300000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1175,25 +1175,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>451.63099999999997</c:v>
+                  <c:v>444.72980000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>613.60590000000002</c:v>
+                  <c:v>611.53880000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>709.62099999999998</c:v>
+                  <c:v>704.86569999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>776.05240000000003</c:v>
+                  <c:v>770.26940000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>792.51179999999999</c:v>
+                  <c:v>786.52750000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>792.77300000000002</c:v>
+                  <c:v>789.41489999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>785.92700000000002</c:v>
+                  <c:v>781.52350000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1205,25 +1205,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.21</c:v>
+                  <c:v>3.4411</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.26</c:v>
+                  <c:v>6.2008999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.64</c:v>
+                  <c:v>10.6884</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.31</c:v>
+                  <c:v>19.757999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.190000000000001</c:v>
+                  <c:v>38.903799999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.299999999999997</c:v>
+                  <c:v>77.770799999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81.040000000000006</c:v>
+                  <c:v>157.51769999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1280,25 +1280,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>356.06959999999998</c:v>
+                  <c:v>353.42970000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>521.38990000000001</c:v>
+                  <c:v>516.27639999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>592.45240000000001</c:v>
+                  <c:v>591.36699999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>634.85770000000002</c:v>
+                  <c:v>627.03890000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>592.58600000000001</c:v>
+                  <c:v>590.83249999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>548.24239999999998</c:v>
+                  <c:v>548.49980000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>552.26379999999995</c:v>
+                  <c:v>552.50279999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1310,25 +1310,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.81</c:v>
+                  <c:v>3.2599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.84</c:v>
+                  <c:v>6.8963000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.75</c:v>
+                  <c:v>12.9399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.6</c:v>
+                  <c:v>24.488099999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>44.773400000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.28</c:v>
+                  <c:v>77.107200000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>115.33</c:v>
+                  <c:v>135.54429999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1355,7 +1355,7 @@
         <c:axId val="395730271"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1000"/>
+          <c:max val="900"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1673,25 +1673,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>430.13900000000001</c:v>
+                  <c:v>445.56189999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>629.1617</c:v>
+                  <c:v>626.39890000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>718.22069999999997</c:v>
+                  <c:v>715.88649999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>789.48260000000005</c:v>
+                  <c:v>785.63699999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>806.1123</c:v>
+                  <c:v>799.99329999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>804.31050000000005</c:v>
+                  <c:v>801.28300000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>794.89700000000005</c:v>
+                  <c:v>793.19780000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1703,25 +1703,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.3199999999999998</c:v>
+                  <c:v>3.3849999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.18</c:v>
+                  <c:v>6.0327000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.57</c:v>
+                  <c:v>10.535</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.130000000000001</c:v>
+                  <c:v>19.3064</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.850000000000001</c:v>
+                  <c:v>38.201300000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.72</c:v>
+                  <c:v>76.576700000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80.13</c:v>
+                  <c:v>155.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1778,25 +1778,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>425.77199999999999</c:v>
+                  <c:v>419.3485</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>614.67830000000004</c:v>
+                  <c:v>615.97829999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>678.57650000000001</c:v>
+                  <c:v>678.13819999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>743.35450000000003</c:v>
+                  <c:v>742.3306</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>742.02239999999995</c:v>
+                  <c:v>740.50919999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>745.01670000000001</c:v>
+                  <c:v>743.39260000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>685.59400000000005</c:v>
+                  <c:v>686.01440000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1808,25 +1808,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.35</c:v>
+                  <c:v>3.1888999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.25</c:v>
+                  <c:v>6.1536</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.89</c:v>
+                  <c:v>11.123799999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.76</c:v>
+                  <c:v>20.483699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.56</c:v>
+                  <c:v>41.375100000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.88</c:v>
+                  <c:v>82.648499999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92.9</c:v>
+                  <c:v>147.1925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1883,25 +1883,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>227.18879999999999</c:v>
+                  <c:v>224.57579999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>360.14690000000002</c:v>
+                  <c:v>355.09289999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>456.33109999999999</c:v>
+                  <c:v>452.56369999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>579.54949999999997</c:v>
+                  <c:v>578.70420000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>681.33240000000001</c:v>
+                  <c:v>682.27599999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>692.04830000000004</c:v>
+                  <c:v>691.46370000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>741.52409999999998</c:v>
+                  <c:v>737.79409999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1913,25 +1913,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4.4938000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.55</c:v>
+                  <c:v>5.6871</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.77</c:v>
+                  <c:v>8.9931999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.8</c:v>
+                  <c:v>14.172800000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.48</c:v>
+                  <c:v>24.252600000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.17</c:v>
+                  <c:v>47.944499999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>85.9</c:v>
+                  <c:v>91.342699999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1988,25 +1988,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>451.6275</c:v>
+                  <c:v>445.50749999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>625.69629999999995</c:v>
+                  <c:v>626.46370000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>717.07349999999997</c:v>
+                  <c:v>712.37239999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>788.90430000000003</c:v>
+                  <c:v>784.05520000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>804.99559999999997</c:v>
+                  <c:v>801.56399999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>803.71849999999995</c:v>
+                  <c:v>800.30930000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>795.9221</c:v>
+                  <c:v>793.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2018,25 +2018,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.21</c:v>
+                  <c:v>3.359</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2</c:v>
+                  <c:v>6.0380000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.58</c:v>
+                  <c:v>10.5443</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.14</c:v>
+                  <c:v>19.3443</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.88</c:v>
+                  <c:v>38.122399999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.75</c:v>
+                  <c:v>76.658199999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80.03</c:v>
+                  <c:v>154.9537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2093,25 +2093,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>353.71949999999998</c:v>
+                  <c:v>351.2398</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>519.90949999999998</c:v>
+                  <c:v>518.87120000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>578.08609999999999</c:v>
+                  <c:v>581.12710000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>622.78570000000002</c:v>
+                  <c:v>619.56470000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>583.1893</c:v>
+                  <c:v>584.32129999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>536.36519999999996</c:v>
+                  <c:v>538.62660000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>545.43129999999996</c:v>
+                  <c:v>542.29780000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2123,25 +2123,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.83</c:v>
+                  <c:v>3.2785000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.85</c:v>
+                  <c:v>7.0400999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.92</c:v>
+                  <c:v>13.1487</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.85</c:v>
+                  <c:v>24.734100000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.44</c:v>
+                  <c:v>45.261400000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59.57</c:v>
+                  <c:v>78.657300000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>116.78</c:v>
+                  <c:v>138.24350000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2168,7 +2168,7 @@
         <c:axId val="159199327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1000"/>
+          <c:max val="900"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2486,25 +2486,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>449.77229999999997</c:v>
+                  <c:v>448.76830000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>615.59259999999995</c:v>
+                  <c:v>615.47029999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>712.13040000000001</c:v>
+                  <c:v>707.72220000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>775.8981</c:v>
+                  <c:v>772.48199999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>793.59069999999997</c:v>
+                  <c:v>790.41920000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>795.31230000000005</c:v>
+                  <c:v>789.9443</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>786.70180000000005</c:v>
+                  <c:v>783.14179999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2516,25 +2516,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.2200000000000002</c:v>
+                  <c:v>3.4051999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.25</c:v>
+                  <c:v>6.1614000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.62</c:v>
+                  <c:v>10.6433</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.31</c:v>
+                  <c:v>19.648199999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.16</c:v>
+                  <c:v>38.671700000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.17</c:v>
+                  <c:v>77.681600000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80.959999999999994</c:v>
+                  <c:v>157.1114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2591,25 +2591,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>430.13900000000001</c:v>
+                  <c:v>445.56189999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>629.1617</c:v>
+                  <c:v>626.39890000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>718.22069999999997</c:v>
+                  <c:v>715.88649999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>789.48260000000005</c:v>
+                  <c:v>785.63699999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>806.1123</c:v>
+                  <c:v>799.99329999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>804.31050000000005</c:v>
+                  <c:v>801.28300000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>794.89700000000005</c:v>
+                  <c:v>793.19780000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2621,25 +2621,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.3199999999999998</c:v>
+                  <c:v>3.3849999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.18</c:v>
+                  <c:v>6.0327000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.57</c:v>
+                  <c:v>10.535</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.130000000000001</c:v>
+                  <c:v>19.3064</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.850000000000001</c:v>
+                  <c:v>38.201300000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.72</c:v>
+                  <c:v>76.576700000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80.13</c:v>
+                  <c:v>155.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2666,7 +2666,7 @@
         <c:axId val="1585216592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1000"/>
+          <c:max val="900"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5091,16 +5091,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>432825</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>62752</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>432826</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>51547</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>180913</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>83928</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>113679</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>72723</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5127,16 +5127,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>260535</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>62191</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>305359</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>624947</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>83367</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>53447</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>49750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5163,16 +5163,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>181253</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>461400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>545664</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>88413</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>142253</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>166853</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5199,16 +5199,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>355388</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>232124</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>118463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>36240</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>139640</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>663771</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>139639</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5555,8 +5555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EA1E30-16EF-45A7-BA32-9442FD5CC215}">
   <dimension ref="A2:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V49" sqref="V49"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5592,22 +5592,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>151.49760000000001</v>
+        <v>150.53100000000001</v>
       </c>
       <c r="C3">
-        <v>6.6</v>
+        <v>12.9116</v>
       </c>
       <c r="D3">
-        <v>122.1996</v>
+        <v>121.88720000000001</v>
       </c>
       <c r="E3">
-        <v>8.18</v>
+        <v>8.3588000000000005</v>
       </c>
       <c r="F3">
-        <v>149.53899999999999</v>
+        <v>148.14760000000001</v>
       </c>
       <c r="G3">
-        <v>6.69</v>
+        <v>13.1266</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -5615,22 +5615,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>172.61949999999999</v>
+        <v>171.5692</v>
       </c>
       <c r="C4">
-        <v>11.59</v>
+        <v>22.826699999999999</v>
       </c>
       <c r="D4">
-        <v>154.3356</v>
+        <v>152.7928</v>
       </c>
       <c r="E4">
-        <v>12.96</v>
+        <v>13.5284</v>
       </c>
       <c r="F4">
-        <v>167.22139999999999</v>
+        <v>165.1283</v>
       </c>
       <c r="G4">
-        <v>11.96</v>
+        <v>23.773299999999999</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -5638,22 +5638,22 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>194.0608</v>
+        <v>191.55879999999999</v>
       </c>
       <c r="C5">
-        <v>20.61</v>
+        <v>41.069000000000003</v>
       </c>
       <c r="D5">
-        <v>176.6165</v>
+        <v>175.48140000000001</v>
       </c>
       <c r="E5">
-        <v>22.65</v>
+        <v>23.620100000000001</v>
       </c>
       <c r="F5">
-        <v>183.82320000000001</v>
+        <v>181.82769999999999</v>
       </c>
       <c r="G5">
-        <v>21.76</v>
+        <v>43.316899999999997</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -5661,22 +5661,22 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>192.51769999999999</v>
+        <v>191.80109999999999</v>
       </c>
       <c r="C6">
-        <v>41.55</v>
+        <v>82.376800000000003</v>
       </c>
       <c r="D6">
-        <v>184.3366</v>
+        <v>182.7867</v>
       </c>
       <c r="E6">
-        <v>43.4</v>
+        <v>45.5901</v>
       </c>
       <c r="F6">
-        <v>183.08920000000001</v>
+        <v>181.08510000000001</v>
       </c>
       <c r="G6">
-        <v>43.69</v>
+        <v>86.71</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -5684,22 +5684,22 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>205.67949999999999</v>
+        <v>204.9102</v>
       </c>
       <c r="C7">
-        <v>77.790000000000006</v>
+        <v>154.1806</v>
       </c>
       <c r="D7">
-        <v>205.10919999999999</v>
+        <v>202.90809999999999</v>
       </c>
       <c r="E7">
-        <v>78.010000000000005</v>
+        <v>82.378</v>
       </c>
       <c r="F7">
-        <v>189.89330000000001</v>
+        <v>188.66200000000001</v>
       </c>
       <c r="G7">
-        <v>84.26</v>
+        <v>141.74539999999999</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -5707,22 +5707,22 @@
         <v>32</v>
       </c>
       <c r="B8">
-        <v>207.0067</v>
+        <v>206.12559999999999</v>
       </c>
       <c r="C8">
-        <v>154.34</v>
+        <v>306.38299999999998</v>
       </c>
       <c r="D8">
-        <v>211.0616</v>
+        <v>209.6874</v>
       </c>
       <c r="E8">
-        <v>151.37</v>
+        <v>159.34129999999999</v>
       </c>
       <c r="F8">
-        <v>186.7304</v>
+        <v>186.44929999999999</v>
       </c>
       <c r="G8">
-        <v>171.1</v>
+        <v>231.65979999999999</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -5730,22 +5730,22 @@
         <v>64</v>
       </c>
       <c r="B9">
-        <v>199.37979999999999</v>
+        <v>199.3767</v>
       </c>
       <c r="C9">
-        <v>319.45999999999998</v>
+        <v>512.82669999999996</v>
       </c>
       <c r="D9">
-        <v>213.9538</v>
+        <v>212.4862</v>
       </c>
       <c r="E9">
-        <v>297.7</v>
+        <v>315.48790000000002</v>
       </c>
       <c r="F9">
-        <v>184.26910000000001</v>
+        <v>183.73089999999999</v>
       </c>
       <c r="G9">
-        <v>345.66</v>
+        <v>414.93669999999997</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -5788,34 +5788,34 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>449.77229999999997</v>
+        <v>448.76830000000001</v>
       </c>
       <c r="C13">
-        <v>2.2200000000000002</v>
+        <v>3.4051999999999998</v>
       </c>
       <c r="D13">
-        <v>422.73910000000001</v>
+        <v>422.2423</v>
       </c>
       <c r="E13">
-        <v>2.37</v>
+        <v>3.2618</v>
       </c>
       <c r="F13">
-        <v>229.99350000000001</v>
+        <v>228.5848</v>
       </c>
       <c r="G13">
-        <v>4.3499999999999996</v>
+        <v>4.4330999999999996</v>
       </c>
       <c r="H13">
-        <v>451.63099999999997</v>
+        <v>444.72980000000001</v>
       </c>
       <c r="I13">
-        <v>2.21</v>
+        <v>3.4411</v>
       </c>
       <c r="J13">
-        <v>356.06959999999998</v>
+        <v>353.42970000000003</v>
       </c>
       <c r="K13">
-        <v>2.81</v>
+        <v>3.2599</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -5823,34 +5823,34 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>615.59259999999995</v>
+        <v>615.47029999999995</v>
       </c>
       <c r="C14">
-        <v>3.25</v>
+        <v>6.1614000000000004</v>
       </c>
       <c r="D14">
-        <v>582.23940000000005</v>
+        <v>580.76739999999995</v>
       </c>
       <c r="E14">
-        <v>3.44</v>
+        <v>6.4817999999999998</v>
       </c>
       <c r="F14">
-        <v>350.65050000000002</v>
+        <v>350.52519999999998</v>
       </c>
       <c r="G14">
-        <v>5.7</v>
+        <v>5.7587000000000002</v>
       </c>
       <c r="H14">
-        <v>613.60590000000002</v>
+        <v>611.53880000000004</v>
       </c>
       <c r="I14">
-        <v>3.26</v>
+        <v>6.2008999999999999</v>
       </c>
       <c r="J14">
-        <v>521.38990000000001</v>
+        <v>516.27639999999997</v>
       </c>
       <c r="K14">
-        <v>3.84</v>
+        <v>6.8963000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -5858,34 +5858,34 @@
         <v>4</v>
       </c>
       <c r="B15">
-        <v>712.13040000000001</v>
+        <v>707.72220000000004</v>
       </c>
       <c r="C15">
-        <v>5.62</v>
+        <v>10.6433</v>
       </c>
       <c r="D15">
-        <v>677.55439999999999</v>
+        <v>675.10910000000001</v>
       </c>
       <c r="E15">
-        <v>5.9</v>
+        <v>11.1913</v>
       </c>
       <c r="F15">
-        <v>458.63249999999999</v>
+        <v>460.36799999999999</v>
       </c>
       <c r="G15">
-        <v>8.7200000000000006</v>
+        <v>8.8425999999999991</v>
       </c>
       <c r="H15">
-        <v>709.62099999999998</v>
+        <v>704.86569999999995</v>
       </c>
       <c r="I15">
-        <v>5.64</v>
+        <v>10.6884</v>
       </c>
       <c r="J15">
-        <v>592.45240000000001</v>
+        <v>591.36699999999996</v>
       </c>
       <c r="K15">
-        <v>6.75</v>
+        <v>12.9399</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -5893,34 +5893,34 @@
         <v>8</v>
       </c>
       <c r="B16">
-        <v>775.8981</v>
+        <v>772.48199999999997</v>
       </c>
       <c r="C16">
-        <v>10.31</v>
+        <v>19.648199999999999</v>
       </c>
       <c r="D16">
-        <v>736.46230000000003</v>
+        <v>733.41290000000004</v>
       </c>
       <c r="E16">
-        <v>10.86</v>
+        <v>20.761900000000001</v>
       </c>
       <c r="F16">
-        <v>582.5684</v>
+        <v>583.10170000000005</v>
       </c>
       <c r="G16">
-        <v>13.73</v>
+        <v>14.0769</v>
       </c>
       <c r="H16">
-        <v>776.05240000000003</v>
+        <v>770.26940000000002</v>
       </c>
       <c r="I16">
-        <v>10.31</v>
+        <v>19.757999999999999</v>
       </c>
       <c r="J16">
-        <v>634.85770000000002</v>
+        <v>627.03890000000001</v>
       </c>
       <c r="K16">
-        <v>12.6</v>
+        <v>24.488099999999999</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -5928,34 +5928,34 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>793.59069999999997</v>
+        <v>790.41920000000005</v>
       </c>
       <c r="C17">
-        <v>20.16</v>
+        <v>38.671700000000001</v>
       </c>
       <c r="D17">
-        <v>733.56399999999996</v>
+        <v>731.78909999999996</v>
       </c>
       <c r="E17">
-        <v>21.81</v>
+        <v>41.889299999999999</v>
       </c>
       <c r="F17">
-        <v>681.029</v>
+        <v>677.3116</v>
       </c>
       <c r="G17">
-        <v>23.49</v>
+        <v>24.4329</v>
       </c>
       <c r="H17">
-        <v>792.51179999999999</v>
+        <v>786.52750000000003</v>
       </c>
       <c r="I17">
-        <v>20.190000000000001</v>
+        <v>38.903799999999997</v>
       </c>
       <c r="J17">
-        <v>592.58600000000001</v>
+        <v>590.83249999999998</v>
       </c>
       <c r="K17">
-        <v>27</v>
+        <v>44.773400000000002</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -5963,34 +5963,34 @@
         <v>32</v>
       </c>
       <c r="B18">
-        <v>795.31230000000005</v>
+        <v>789.9443</v>
       </c>
       <c r="C18">
-        <v>40.17</v>
+        <v>77.681600000000003</v>
       </c>
       <c r="D18">
-        <v>733.71349999999995</v>
+        <v>729.94659999999999</v>
       </c>
       <c r="E18">
-        <v>43.54</v>
+        <v>84.097399999999993</v>
       </c>
       <c r="F18">
-        <v>690.14610000000005</v>
+        <v>688.86680000000001</v>
       </c>
       <c r="G18">
-        <v>46.29</v>
+        <v>48.122</v>
       </c>
       <c r="H18">
-        <v>792.77300000000002</v>
+        <v>789.41489999999999</v>
       </c>
       <c r="I18">
-        <v>40.299999999999997</v>
+        <v>77.770799999999994</v>
       </c>
       <c r="J18">
-        <v>548.24239999999998</v>
+        <v>548.49980000000005</v>
       </c>
       <c r="K18">
-        <v>58.28</v>
+        <v>77.107200000000006</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -5998,34 +5998,34 @@
         <v>64</v>
       </c>
       <c r="B19">
-        <v>786.70180000000005</v>
+        <v>783.14179999999999</v>
       </c>
       <c r="C19">
-        <v>80.959999999999994</v>
+        <v>157.1114</v>
       </c>
       <c r="D19">
-        <v>685.31119999999999</v>
+        <v>685.02700000000004</v>
       </c>
       <c r="E19">
-        <v>92.94</v>
+        <v>147.41579999999999</v>
       </c>
       <c r="F19">
-        <v>733.77679999999998</v>
+        <v>730.48800000000006</v>
       </c>
       <c r="G19">
-        <v>86.8</v>
+        <v>92.279300000000006</v>
       </c>
       <c r="H19">
-        <v>785.92700000000002</v>
+        <v>781.52350000000001</v>
       </c>
       <c r="I19">
-        <v>81.040000000000006</v>
+        <v>157.51769999999999</v>
       </c>
       <c r="J19">
-        <v>552.26379999999995</v>
+        <v>552.50279999999998</v>
       </c>
       <c r="K19">
-        <v>115.33</v>
+        <v>135.54429999999999</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -6068,34 +6068,34 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>430.13900000000001</v>
+        <v>445.56189999999998</v>
       </c>
       <c r="C23">
-        <v>2.3199999999999998</v>
+        <v>3.3849999999999998</v>
       </c>
       <c r="D23">
-        <v>425.77199999999999</v>
+        <v>419.3485</v>
       </c>
       <c r="E23">
-        <v>2.35</v>
+        <v>3.1888999999999998</v>
       </c>
       <c r="F23">
-        <v>227.18879999999999</v>
+        <v>224.57579999999999</v>
       </c>
       <c r="G23">
-        <v>4.4000000000000004</v>
+        <v>4.4938000000000002</v>
       </c>
       <c r="H23">
-        <v>451.6275</v>
+        <v>445.50749999999999</v>
       </c>
       <c r="I23">
-        <v>2.21</v>
+        <v>3.359</v>
       </c>
       <c r="J23">
-        <v>353.71949999999998</v>
+        <v>351.2398</v>
       </c>
       <c r="K23">
-        <v>2.83</v>
+        <v>3.2785000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -6103,34 +6103,34 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>629.1617</v>
+        <v>626.39890000000003</v>
       </c>
       <c r="C24">
-        <v>3.18</v>
+        <v>6.0327000000000002</v>
       </c>
       <c r="D24">
-        <v>614.67830000000004</v>
+        <v>615.97829999999999</v>
       </c>
       <c r="E24">
-        <v>3.25</v>
+        <v>6.1536</v>
       </c>
       <c r="F24">
-        <v>360.14690000000002</v>
+        <v>355.09289999999999</v>
       </c>
       <c r="G24">
-        <v>5.55</v>
+        <v>5.6871</v>
       </c>
       <c r="H24">
-        <v>625.69629999999995</v>
+        <v>626.46370000000002</v>
       </c>
       <c r="I24">
-        <v>3.2</v>
+        <v>6.0380000000000003</v>
       </c>
       <c r="J24">
-        <v>519.90949999999998</v>
+        <v>518.87120000000004</v>
       </c>
       <c r="K24">
-        <v>3.85</v>
+        <v>7.0400999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -6138,34 +6138,34 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>718.22069999999997</v>
+        <v>715.88649999999996</v>
       </c>
       <c r="C25">
-        <v>5.57</v>
+        <v>10.535</v>
       </c>
       <c r="D25">
-        <v>678.57650000000001</v>
+        <v>678.13819999999998</v>
       </c>
       <c r="E25">
-        <v>5.89</v>
+        <v>11.123799999999999</v>
       </c>
       <c r="F25">
-        <v>456.33109999999999</v>
+        <v>452.56369999999998</v>
       </c>
       <c r="G25">
-        <v>8.77</v>
+        <v>8.9931999999999999</v>
       </c>
       <c r="H25">
-        <v>717.07349999999997</v>
+        <v>712.37239999999997</v>
       </c>
       <c r="I25">
-        <v>5.58</v>
+        <v>10.5443</v>
       </c>
       <c r="J25">
-        <v>578.08609999999999</v>
+        <v>581.12710000000004</v>
       </c>
       <c r="K25">
-        <v>6.92</v>
+        <v>13.1487</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -6173,34 +6173,34 @@
         <v>8</v>
       </c>
       <c r="B26">
-        <v>789.48260000000005</v>
+        <v>785.63699999999994</v>
       </c>
       <c r="C26">
-        <v>10.130000000000001</v>
+        <v>19.3064</v>
       </c>
       <c r="D26">
-        <v>743.35450000000003</v>
+        <v>742.3306</v>
       </c>
       <c r="E26">
-        <v>10.76</v>
+        <v>20.483699999999999</v>
       </c>
       <c r="F26">
-        <v>579.54949999999997</v>
+        <v>578.70420000000001</v>
       </c>
       <c r="G26">
-        <v>13.8</v>
+        <v>14.172800000000001</v>
       </c>
       <c r="H26">
-        <v>788.90430000000003</v>
+        <v>784.05520000000001</v>
       </c>
       <c r="I26">
-        <v>10.14</v>
+        <v>19.3443</v>
       </c>
       <c r="J26">
-        <v>622.78570000000002</v>
+        <v>619.56470000000002</v>
       </c>
       <c r="K26">
-        <v>12.85</v>
+        <v>24.734100000000002</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -6208,34 +6208,34 @@
         <v>16</v>
       </c>
       <c r="B27">
-        <v>806.1123</v>
+        <v>799.99329999999998</v>
       </c>
       <c r="C27">
-        <v>19.850000000000001</v>
+        <v>38.201300000000003</v>
       </c>
       <c r="D27">
-        <v>742.02239999999995</v>
+        <v>740.50919999999996</v>
       </c>
       <c r="E27">
-        <v>21.56</v>
+        <v>41.375100000000003</v>
       </c>
       <c r="F27">
-        <v>681.33240000000001</v>
+        <v>682.27599999999995</v>
       </c>
       <c r="G27">
-        <v>23.48</v>
+        <v>24.252600000000001</v>
       </c>
       <c r="H27">
-        <v>804.99559999999997</v>
+        <v>801.56399999999996</v>
       </c>
       <c r="I27">
-        <v>19.88</v>
+        <v>38.122399999999999</v>
       </c>
       <c r="J27">
-        <v>583.1893</v>
+        <v>584.32129999999995</v>
       </c>
       <c r="K27">
-        <v>27.44</v>
+        <v>45.261400000000002</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -6243,34 +6243,34 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>804.31050000000005</v>
+        <v>801.28300000000002</v>
       </c>
       <c r="C28">
-        <v>39.72</v>
+        <v>76.576700000000002</v>
       </c>
       <c r="D28">
-        <v>745.01670000000001</v>
+        <v>743.39260000000002</v>
       </c>
       <c r="E28">
-        <v>42.88</v>
+        <v>82.648499999999999</v>
       </c>
       <c r="F28">
-        <v>692.04830000000004</v>
+        <v>691.46370000000002</v>
       </c>
       <c r="G28">
-        <v>46.17</v>
+        <v>47.944499999999998</v>
       </c>
       <c r="H28">
-        <v>803.71849999999995</v>
+        <v>800.30930000000001</v>
       </c>
       <c r="I28">
-        <v>39.75</v>
+        <v>76.658199999999994</v>
       </c>
       <c r="J28">
-        <v>536.36519999999996</v>
+        <v>538.62660000000005</v>
       </c>
       <c r="K28">
-        <v>59.57</v>
+        <v>78.657300000000006</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -6278,34 +6278,34 @@
         <v>64</v>
       </c>
       <c r="B29">
-        <v>794.89700000000005</v>
+        <v>793.19780000000003</v>
       </c>
       <c r="C29">
-        <v>80.13</v>
+        <v>155.09</v>
       </c>
       <c r="D29">
-        <v>685.59400000000005</v>
+        <v>686.01440000000002</v>
       </c>
       <c r="E29">
-        <v>92.9</v>
+        <v>147.1925</v>
       </c>
       <c r="F29">
-        <v>741.52409999999998</v>
+        <v>737.79409999999996</v>
       </c>
       <c r="G29">
-        <v>85.9</v>
+        <v>91.342699999999994</v>
       </c>
       <c r="H29">
-        <v>795.9221</v>
+        <v>793.68</v>
       </c>
       <c r="I29">
-        <v>80.03</v>
+        <v>154.9537</v>
       </c>
       <c r="J29">
-        <v>545.43129999999996</v>
+        <v>542.29780000000005</v>
       </c>
       <c r="K29">
-        <v>116.78</v>
+        <v>138.24350000000001</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
@@ -6324,100 +6324,100 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34">
-        <v>449.77229999999997</v>
+        <v>448.76830000000001</v>
       </c>
       <c r="C34">
-        <v>2.2200000000000002</v>
+        <v>3.4051999999999998</v>
       </c>
       <c r="D34">
-        <v>430.13900000000001</v>
+        <v>445.56189999999998</v>
       </c>
       <c r="E34">
-        <v>2.3199999999999998</v>
+        <v>3.3849999999999998</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35">
-        <v>615.59259999999995</v>
+        <v>615.47029999999995</v>
       </c>
       <c r="C35">
-        <v>3.25</v>
+        <v>6.1614000000000004</v>
       </c>
       <c r="D35">
-        <v>629.1617</v>
+        <v>626.39890000000003</v>
       </c>
       <c r="E35">
-        <v>3.18</v>
+        <v>6.0327000000000002</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36">
-        <v>712.13040000000001</v>
+        <v>707.72220000000004</v>
       </c>
       <c r="C36">
-        <v>5.62</v>
+        <v>10.6433</v>
       </c>
       <c r="D36">
-        <v>718.22069999999997</v>
+        <v>715.88649999999996</v>
       </c>
       <c r="E36">
-        <v>5.57</v>
+        <v>10.535</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37">
-        <v>775.8981</v>
+        <v>772.48199999999997</v>
       </c>
       <c r="C37">
-        <v>10.31</v>
+        <v>19.648199999999999</v>
       </c>
       <c r="D37">
-        <v>789.48260000000005</v>
+        <v>785.63699999999994</v>
       </c>
       <c r="E37">
-        <v>10.130000000000001</v>
+        <v>19.3064</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38">
-        <v>793.59069999999997</v>
+        <v>790.41920000000005</v>
       </c>
       <c r="C38">
-        <v>20.16</v>
+        <v>38.671700000000001</v>
       </c>
       <c r="D38">
-        <v>806.1123</v>
+        <v>799.99329999999998</v>
       </c>
       <c r="E38">
-        <v>19.850000000000001</v>
+        <v>38.201300000000003</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39">
-        <v>795.31230000000005</v>
+        <v>789.9443</v>
       </c>
       <c r="C39">
-        <v>40.17</v>
+        <v>77.681600000000003</v>
       </c>
       <c r="D39">
-        <v>804.31050000000005</v>
+        <v>801.28300000000002</v>
       </c>
       <c r="E39">
-        <v>39.72</v>
+        <v>76.576700000000002</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40">
-        <v>786.70180000000005</v>
+        <v>783.14179999999999</v>
       </c>
       <c r="C40">
-        <v>80.959999999999994</v>
+        <v>157.1114</v>
       </c>
       <c r="D40">
-        <v>794.89700000000005</v>
+        <v>793.19780000000003</v>
       </c>
       <c r="E40">
-        <v>80.13</v>
+        <v>155.09</v>
       </c>
     </row>
   </sheetData>
